--- a/indResults.xlsx
+++ b/indResults.xlsx
@@ -490,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.257071026042052e-07</v>
+        <v>1.257071026042056e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001257071027510053</v>
+        <v>0.00125707102751006</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>10</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01015108976635559</v>
+        <v>0.01015109281062094</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.010488335518615e-07</v>
+        <v>9.01049107284353e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>2.014287165883979</v>
+        <v>2.014287164935096</v>
       </c>
       <c r="S3" t="n">
-        <v>19.40867211366508</v>
+        <v>19.40869540284854</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1151180031202814</v>
+        <v>0.1151181411798763</v>
       </c>
       <c r="U3" t="n">
-        <v>2.083974577626225</v>
+        <v>2.083974578081909</v>
       </c>
       <c r="V3" t="n">
-        <v>1.907248255420698e-07</v>
+        <v>1.907248596708901e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001638460710927572</v>
+        <v>0.001638460953641461</v>
       </c>
     </row>
     <row r="4">
@@ -622,28 +622,28 @@
         <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01999131553631909</v>
+        <v>0.0199913215316231</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.625015269710663e-06</v>
+        <v>1.625015760574233e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>2.036544885767873</v>
+        <v>2.036544884962968</v>
       </c>
       <c r="S4" t="n">
-        <v>27.90327264714842</v>
+        <v>27.90330612931722</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1654960414164828</v>
+        <v>0.1654962397995207</v>
       </c>
       <c r="U4" t="n">
-        <v>2.083965226242531</v>
+        <v>2.08396522709607</v>
       </c>
       <c r="V4" t="n">
-        <v>3.080797670760813e-07</v>
+        <v>3.080798463609538e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002393622048742647</v>
+        <v>0.002393622626000457</v>
       </c>
     </row>
     <row r="5">
@@ -697,28 +697,28 @@
         <v>10</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02926902550328738</v>
+        <v>0.02926903428093414</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.33744660228145e-06</v>
+        <v>2.337447306605391e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>2.043196981294317</v>
+        <v>2.043196980706094</v>
       </c>
       <c r="S5" t="n">
-        <v>34.34552808823542</v>
+        <v>34.34556930070477</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2037388544346653</v>
+        <v>0.2037390985568557</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08383646105382</v>
+        <v>2.083836462257691</v>
       </c>
       <c r="V5" t="n">
-        <v>4.299892838504603e-07</v>
+        <v>4.299894042510352e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003221532893721942</v>
+        <v>0.003221533777358103</v>
       </c>
     </row>
     <row r="6">
@@ -772,28 +772,28 @@
         <v>10</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03935150114431318</v>
+        <v>0.03935151294564822</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.120455472991634e-06</v>
+        <v>3.120456411869662e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>2.046142623470642</v>
+        <v>2.046142623046403</v>
       </c>
       <c r="S6" t="n">
-        <v>40.39995611151164</v>
+        <v>40.40000458891308</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2397086919884185</v>
+        <v>0.2397089790831197</v>
       </c>
       <c r="U6" t="n">
-        <v>2.083668246980688</v>
+        <v>2.083668248547694</v>
       </c>
       <c r="V6" t="n">
-        <v>5.665235202414485e-07</v>
+        <v>5.665236843679731e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004169608476974363</v>
+        <v>0.004169609682839039</v>
       </c>
     </row>
     <row r="7">
@@ -847,28 +847,28 @@
         <v>10</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04905489874598055</v>
+        <v>0.0490549134573201</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.877568212412066e-06</v>
+        <v>3.877569378088725e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>2.047520599844675</v>
+        <v>2.04752059952513</v>
       </c>
       <c r="S7" t="n">
-        <v>45.74453395128579</v>
+        <v>45.74458884184385</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2714817923996415</v>
+        <v>0.2714821174183315</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08350476269078</v>
+        <v>2.083504764583512</v>
       </c>
       <c r="V7" t="n">
-        <v>6.996759901094625e-07</v>
+        <v>6.996761958584501e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>0.005104342454332709</v>
+        <v>0.005104343964597994</v>
       </c>
     </row>
     <row r="8">
@@ -922,28 +922,28 @@
         <v>10</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05909836635657104</v>
+        <v>0.05909838407990056</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.663018810560562e-06</v>
+        <v>4.663020211508038e-06</v>
       </c>
       <c r="R8" t="n">
-        <v>2.048321446438941</v>
+        <v>2.048321446196987</v>
       </c>
       <c r="S8" t="n">
-        <v>50.84389445519815</v>
+        <v>50.84395546466747</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3018172251174452</v>
+        <v>0.3018175863091932</v>
       </c>
       <c r="U8" t="n">
-        <v>2.083335247324846</v>
+        <v>2.083335249540655</v>
       </c>
       <c r="V8" t="n">
-        <v>8.384157210694565e-07</v>
+        <v>8.384159696299225e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>0.006083847476914465</v>
+        <v>0.006083849298513509</v>
       </c>
     </row>
     <row r="9">
@@ -997,28 +997,28 @@
         <v>10</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06894339311489581</v>
+        <v>0.06894341379070379</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.433966753216524e-06</v>
+        <v>5.433968385081508e-06</v>
       </c>
       <c r="R9" t="n">
-        <v>2.048803771855333</v>
+        <v>2.048803771669879</v>
       </c>
       <c r="S9" t="n">
-        <v>55.53022575963691</v>
+        <v>55.53029239240848</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3297127202886623</v>
+        <v>0.3297131147139722</v>
       </c>
       <c r="U9" t="n">
-        <v>2.083171693552278</v>
+        <v>2.083171696071715</v>
       </c>
       <c r="V9" t="n">
-        <v>9.749420984159904e-07</v>
+        <v>9.749423887831741e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>0.007051004456887678</v>
+        <v>0.007051006581406532</v>
       </c>
     </row>
     <row r="10">
@@ -1072,28 +1072,28 @@
         <v>10</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0788795386314938</v>
+        <v>0.07887956228710634</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.212690883582457e-06</v>
+        <v>6.212692748699811e-06</v>
       </c>
       <c r="R10" t="n">
-        <v>2.049124972112272</v>
+        <v>2.049124971969902</v>
       </c>
       <c r="S10" t="n">
-        <v>60.08704790830853</v>
+        <v>60.08712000897953</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3568495747563113</v>
+        <v>0.3568500014898248</v>
       </c>
       <c r="U10" t="n">
-        <v>2.083014069339576</v>
+        <v>2.083014072147061</v>
       </c>
       <c r="V10" t="n">
-        <v>1.113068672898553e-06</v>
+        <v>1.11306900536519e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>0.00803167719802198</v>
+        <v>0.008031679626997548</v>
       </c>
     </row>
     <row r="11">
@@ -1147,28 +1147,28 @@
         <v>10</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08898421884369047</v>
+        <v>0.08898424552965035</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.005064570812663e-06</v>
+        <v>7.005066673279359e-06</v>
       </c>
       <c r="R11" t="n">
-        <v>2.04935091609702</v>
+        <v>2.049350915988462</v>
       </c>
       <c r="S11" t="n">
-        <v>64.60866756830833</v>
+        <v>64.60874509463798</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3837864408589722</v>
+        <v>0.3837868996456142</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08286295129954</v>
+        <v>2.08286295438008</v>
       </c>
       <c r="V11" t="n">
-        <v>1.253771443527762e-06</v>
+        <v>1.253771818745415e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>0.009032189961560886</v>
+        <v>0.009032192699348839</v>
       </c>
     </row>
     <row r="12">
@@ -1222,28 +1222,28 @@
         <v>10</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1010957121908971</v>
+        <v>0.1010957425090383</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.955183121140297e-06</v>
+        <v>7.955185508175669e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>2.049541501682733</v>
+        <v>2.049541501607903</v>
       </c>
       <c r="S12" t="n">
-        <v>69.65422426851202</v>
+        <v>69.65430784919175</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4138681537610742</v>
+        <v>0.4138686483009383</v>
       </c>
       <c r="U12" t="n">
-        <v>2.082679284043189</v>
+        <v>2.082679287451116</v>
       </c>
       <c r="V12" t="n">
-        <v>1.422618038322458e-06</v>
+        <v>1.422618464697951e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01023400031510178</v>
+        <v>0.010234003421571</v>
       </c>
     </row>
     <row r="13">
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.257071024723324e-06</v>
+        <v>1.257071024723325e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01257071024925346</v>
+        <v>0.01257071024925347</v>
       </c>
     </row>
     <row r="14">
@@ -1372,28 +1372,28 @@
         <v>10</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1039163928737327</v>
+        <v>0.1039164240377833</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.171212232598169e-06</v>
+        <v>9.17121500753135e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>2.015367033845429</v>
+        <v>2.01536703317403</v>
       </c>
       <c r="S14" t="n">
-        <v>167.5708465728673</v>
+        <v>167.5710476473234</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9940240126746617</v>
+        <v>0.9940252045329921</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08373200228158</v>
+        <v>2.083732002920048</v>
       </c>
       <c r="V14" t="n">
-        <v>1.92998153249253e-06</v>
+        <v>1.929981878828665e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01647759357715021</v>
+        <v>0.0164775959432006</v>
       </c>
     </row>
     <row r="15">
@@ -1447,28 +1447,28 @@
         <v>10</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2077337653625143</v>
+        <v>0.2077338276609196</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.683848581298259e-05</v>
+        <v>1.683849088607998e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>2.03754696758832</v>
+        <v>2.037546967064912</v>
       </c>
       <c r="S15" t="n">
-        <v>243.0231807440136</v>
+        <v>243.023472356516</v>
       </c>
       <c r="T15" t="n">
-        <v>1.441700165129062</v>
+        <v>1.441701892574915</v>
       </c>
       <c r="U15" t="n">
-        <v>2.083701778762981</v>
+        <v>2.08370177997248</v>
       </c>
       <c r="V15" t="n">
-        <v>3.177629121368962e-06</v>
+        <v>3.177629941913367e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02451794342610997</v>
+        <v>0.02451794927090891</v>
       </c>
     </row>
     <row r="16">
@@ -1522,28 +1522,28 @@
         <v>10</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3043856627221039</v>
+        <v>0.3043857540059706</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.427292937240055e-05</v>
+        <v>2.427293667268685e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>2.043793890236926</v>
+        <v>2.043793889877027</v>
       </c>
       <c r="S16" t="n">
-        <v>300.3882362186002</v>
+        <v>300.3885966655541</v>
       </c>
       <c r="T16" t="n">
-        <v>1.782493499570552</v>
+        <v>1.78249563409863</v>
       </c>
       <c r="U16" t="n">
-        <v>2.083520324557057</v>
+        <v>2.083520326249251</v>
       </c>
       <c r="V16" t="n">
-        <v>4.453085519310566e-06</v>
+        <v>4.453086766584074e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03319957907125455</v>
+        <v>0.03319958807960597</v>
       </c>
     </row>
     <row r="17">
@@ -1597,28 +1597,28 @@
         <v>10</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3990511511472187</v>
+        <v>0.3990512708208321</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.162896544197423e-05</v>
+        <v>3.162897494552097e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>2.046341457916858</v>
+        <v>2.046341457667924</v>
       </c>
       <c r="S17" t="n">
-        <v>349.0246746156917</v>
+        <v>349.0250934233068</v>
       </c>
       <c r="T17" t="n">
-        <v>2.07174780046836</v>
+        <v>2.071750279993229</v>
       </c>
       <c r="U17" t="n">
-        <v>2.083308433549511</v>
+        <v>2.083308435693779</v>
       </c>
       <c r="V17" t="n">
-        <v>5.737022458547272e-06</v>
+        <v>5.737024115558409e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0421226090510203</v>
+        <v>0.04212262106844574</v>
       </c>
     </row>
     <row r="18">
@@ -1672,28 +1672,28 @@
         <v>10</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4948798790440325</v>
+        <v>0.4948800274562426</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.910706364468218e-05</v>
+        <v>3.910707538807167e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>2.047644348297433</v>
+        <v>2.047644348123878</v>
       </c>
       <c r="S18" t="n">
-        <v>394.5568935571754</v>
+        <v>394.557367000584</v>
       </c>
       <c r="T18" t="n">
-        <v>2.342759112426012</v>
+        <v>2.342761914819239</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08309403550299</v>
+        <v>2.083094038071669</v>
       </c>
       <c r="V18" t="n">
-        <v>7.052480351645713e-06</v>
+        <v>7.052482419320692e-06</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05135749675852858</v>
+        <v>0.05135751177232084</v>
       </c>
     </row>
     <row r="19">
@@ -1747,28 +1747,28 @@
         <v>10</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5925969956962782</v>
+        <v>0.5925971734134042</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.674934892960787e-05</v>
+        <v>4.674936296196576e-05</v>
       </c>
       <c r="R19" t="n">
-        <v>2.048399379039636</v>
+        <v>2.048399378920762</v>
       </c>
       <c r="S19" t="n">
-        <v>437.9349602089108</v>
+        <v>437.9354857032657</v>
       </c>
       <c r="T19" t="n">
-        <v>2.601149816070218</v>
+        <v>2.601152925948738</v>
       </c>
       <c r="U19" t="n">
-        <v>2.082879202274843</v>
+        <v>2.082879205250917</v>
       </c>
       <c r="V19" t="n">
-        <v>8.402472821054382e-06</v>
+        <v>8.402475305058465e-06</v>
       </c>
       <c r="W19" t="n">
-        <v>0.06088777429262478</v>
+        <v>0.06088779232986768</v>
       </c>
     </row>
     <row r="20">
@@ -1822,28 +1822,28 @@
         <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6901290742554334</v>
+        <v>0.6901292812219834</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.438695888898497e-05</v>
+        <v>5.438697520888296e-05</v>
       </c>
       <c r="R20" t="n">
-        <v>2.048865988469859</v>
+        <v>2.048865988391389</v>
       </c>
       <c r="S20" t="n">
-        <v>478.9898626224447</v>
+        <v>478.9904373800954</v>
       </c>
       <c r="T20" t="n">
-        <v>2.845872997874039</v>
+        <v>2.845876398675031</v>
       </c>
       <c r="U20" t="n">
-        <v>2.082671670636135</v>
+        <v>2.082671673995392</v>
       </c>
       <c r="V20" t="n">
-        <v>9.755006513816597e-06</v>
+        <v>9.755009411884262e-06</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07046820815917207</v>
+        <v>0.07046822919405607</v>
       </c>
     </row>
     <row r="21">
@@ -1897,28 +1897,28 @@
         <v>10</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7834942949993715</v>
+        <v>0.7834945299657239</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.170411592569193e-05</v>
+        <v>6.170413443723847e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>2.049163716243987</v>
+        <v>2.049163716194592</v>
       </c>
       <c r="S21" t="n">
-        <v>517.3825768301709</v>
+        <v>517.3831976566593</v>
       </c>
       <c r="T21" t="n">
-        <v>3.074826946845704</v>
+        <v>3.07483061964939</v>
       </c>
       <c r="U21" t="n">
-        <v>2.082486182258422</v>
+        <v>2.082486185954812</v>
       </c>
       <c r="V21" t="n">
-        <v>1.105283209448381e-05</v>
+        <v>1.105283538809727e-05</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07968134914346926</v>
+        <v>0.07968137303737366</v>
       </c>
     </row>
     <row r="22">
@@ -1972,28 +1972,28 @@
         <v>10</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8787679086169137</v>
+        <v>0.8787681721553864</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.917479653683313e-05</v>
+        <v>6.917481728604213e-05</v>
       </c>
       <c r="R22" t="n">
-        <v>2.049377591749708</v>
+        <v>2.049377591723657</v>
       </c>
       <c r="S22" t="n">
-        <v>555.6312808569668</v>
+        <v>555.6319475794895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.303019175594984</v>
+        <v>3.303023119326032</v>
       </c>
       <c r="U22" t="n">
-        <v>2.082307729121297</v>
+        <v>2.082307733137943</v>
       </c>
       <c r="V22" t="n">
-        <v>1.237928121559361e-05</v>
+        <v>1.237928491224566e-05</v>
       </c>
       <c r="W22" t="n">
-        <v>0.08911149442112731</v>
+        <v>0.08911152122456194</v>
       </c>
     </row>
     <row r="23">
@@ -2047,28 +2047,28 @@
         <v>10</v>
       </c>
       <c r="P23" t="n">
-        <v>0.9856509122155463</v>
+        <v>0.9856512078077428</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.755904784604677e-05</v>
+        <v>7.755907110642203e-05</v>
       </c>
       <c r="R23" t="n">
-        <v>2.04955001955733</v>
+        <v>2.049550019553041</v>
       </c>
       <c r="S23" t="n">
-        <v>596.4711680698063</v>
+        <v>596.4718837976202</v>
       </c>
       <c r="T23" t="n">
-        <v>3.546844974878738</v>
+        <v>3.546849207788059</v>
       </c>
       <c r="U23" t="n">
-        <v>2.082110104332565</v>
+        <v>2.082110108699112</v>
       </c>
       <c r="V23" t="n">
-        <v>1.386908400880124e-05</v>
+        <v>1.386908815699293e-05</v>
       </c>
       <c r="W23" t="n">
-        <v>0.09971372545928753</v>
+        <v>0.09971375551708855</v>
       </c>
     </row>
   </sheetData>

--- a/indResults.xlsx
+++ b/indResults.xlsx
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-23</v>
+        <v>-21</v>
       </c>
       <c r="F13" t="n">
         <v>1591</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.257071024723325e-06</v>
+        <v>1.257071024688318e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01257071024925347</v>
+        <v>0.01257071024856734</v>
       </c>
     </row>
     <row r="14">
@@ -1375,19 +1375,19 @@
         <v>0.1039164240377833</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.17121500753135e-06</v>
+        <v>9.171214630206793e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>2.01536703317403</v>
+        <v>2.015367043532096</v>
       </c>
       <c r="S14" t="n">
-        <v>167.5710476473234</v>
+        <v>167.5690475035215</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9940252045329921</v>
+        <v>0.9940193103620883</v>
       </c>
       <c r="U14" t="n">
-        <v>2.083732002920048</v>
+        <v>2.083731978016969</v>
       </c>
       <c r="V14" t="n">
         <v>1.929981878828665e-06</v>
@@ -1450,19 +1450,19 @@
         <v>0.2077338276609196</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.683849088607998e-05</v>
+        <v>1.683849059714099e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>2.037546967064912</v>
+        <v>2.037546973570641</v>
       </c>
       <c r="S15" t="n">
-        <v>243.023472356516</v>
+        <v>243.0214722127141</v>
       </c>
       <c r="T15" t="n">
-        <v>1.441701892574915</v>
+        <v>1.441695999039852</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08370177997248</v>
+        <v>2.083701762568274</v>
       </c>
       <c r="V15" t="n">
         <v>3.177629941913367e-06</v>
@@ -1525,19 +1525,19 @@
         <v>0.3043857540059706</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.427293667268685e-05</v>
+        <v>2.42729364272612e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>2.043793889877027</v>
+        <v>2.043793894106823</v>
       </c>
       <c r="S16" t="n">
-        <v>300.3885966655541</v>
+        <v>300.3865965217523</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78249563409863</v>
+        <v>1.782489742283523</v>
       </c>
       <c r="U16" t="n">
-        <v>2.083520326249251</v>
+        <v>2.083520311005623</v>
       </c>
       <c r="V16" t="n">
         <v>4.453086766584074e-06</v>
@@ -1600,19 +1600,19 @@
         <v>0.3990512708208321</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.162897494552097e-05</v>
+        <v>3.162897472755116e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>2.046341457667924</v>
+        <v>2.046341460664965</v>
       </c>
       <c r="S17" t="n">
-        <v>349.0250934233068</v>
+        <v>349.023093279505</v>
       </c>
       <c r="T17" t="n">
-        <v>2.071750279993229</v>
+        <v>2.071744390105576</v>
       </c>
       <c r="U17" t="n">
-        <v>2.083308435693779</v>
+        <v>2.083308421409329</v>
       </c>
       <c r="V17" t="n">
         <v>5.737024115558409e-06</v>
@@ -1675,19 +1675,19 @@
         <v>0.4948800274562426</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.910707538807167e-05</v>
+        <v>3.910707518920017e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>2.047644348123878</v>
+        <v>2.047644350379364</v>
       </c>
       <c r="S18" t="n">
-        <v>394.557367000584</v>
+        <v>394.5553668567821</v>
       </c>
       <c r="T18" t="n">
-        <v>2.342761914819239</v>
+        <v>2.342756026865681</v>
       </c>
       <c r="U18" t="n">
-        <v>2.083094038071669</v>
+        <v>2.083094024397489</v>
       </c>
       <c r="V18" t="n">
         <v>7.052482419320692e-06</v>
@@ -1750,19 +1750,19 @@
         <v>0.5925971734134042</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.674936296196576e-05</v>
+        <v>4.674936277754227e-05</v>
       </c>
       <c r="R19" t="n">
-        <v>2.048399378920762</v>
+        <v>2.048399380690509</v>
       </c>
       <c r="S19" t="n">
-        <v>437.9354857032657</v>
+        <v>437.9334855594639</v>
       </c>
       <c r="T19" t="n">
-        <v>2.601152925948738</v>
+        <v>2.601147039928809</v>
       </c>
       <c r="U19" t="n">
-        <v>2.082879205250917</v>
+        <v>2.082879191998188</v>
       </c>
       <c r="V19" t="n">
         <v>8.402475305058465e-06</v>
@@ -1825,19 +1825,19 @@
         <v>0.6901292812219834</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.438697520888296e-05</v>
+        <v>5.438697503563156e-05</v>
       </c>
       <c r="R20" t="n">
-        <v>2.048865988391389</v>
+        <v>2.048865989830586</v>
       </c>
       <c r="S20" t="n">
-        <v>478.9904373800954</v>
+        <v>478.9884372362936</v>
       </c>
       <c r="T20" t="n">
-        <v>2.845876398675031</v>
+        <v>2.84587051452481</v>
       </c>
       <c r="U20" t="n">
-        <v>2.082671673995392</v>
+        <v>2.082671661058268</v>
       </c>
       <c r="V20" t="n">
         <v>9.755009411884262e-06</v>
@@ -1900,19 +1900,19 @@
         <v>0.7834945299657239</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.170413443723847e-05</v>
+        <v>6.170413427237478e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>2.049163716194592</v>
+        <v>2.049163717407181</v>
       </c>
       <c r="S21" t="n">
-        <v>517.3831976566593</v>
+        <v>517.3811975128574</v>
       </c>
       <c r="T21" t="n">
-        <v>3.07483061964939</v>
+        <v>3.074824737175694</v>
       </c>
       <c r="U21" t="n">
-        <v>2.082486185954812</v>
+        <v>2.08248617330185</v>
       </c>
       <c r="V21" t="n">
         <v>1.105283538809727e-05</v>
@@ -1975,19 +1975,19 @@
         <v>0.8787681721553864</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.917481728604213e-05</v>
+        <v>6.917481712816919e-05</v>
       </c>
       <c r="R22" t="n">
-        <v>2.049377591723657</v>
+        <v>2.049377592762813</v>
       </c>
       <c r="S22" t="n">
-        <v>555.6319475794895</v>
+        <v>555.6299474356877</v>
       </c>
       <c r="T22" t="n">
-        <v>3.303023119326032</v>
+        <v>3.303017238470463</v>
       </c>
       <c r="U22" t="n">
-        <v>2.082307733137943</v>
+        <v>2.082307720752961</v>
       </c>
       <c r="V22" t="n">
         <v>1.237928491224566e-05</v>
@@ -2050,19 +2050,19 @@
         <v>0.9856512078077428</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.755907110642203e-05</v>
+        <v>7.755907095531116e-05</v>
       </c>
       <c r="R23" t="n">
-        <v>2.049550019553041</v>
+        <v>2.049550020442524</v>
       </c>
       <c r="S23" t="n">
-        <v>596.4718837976202</v>
+        <v>596.4698836538183</v>
       </c>
       <c r="T23" t="n">
-        <v>3.546849207788059</v>
+        <v>3.546843328729151</v>
       </c>
       <c r="U23" t="n">
-        <v>2.082110108699112</v>
+        <v>2.082110096542589</v>
       </c>
       <c r="V23" t="n">
         <v>1.386908815699293e-05</v>

--- a/indResults.xlsx
+++ b/indResults.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="pyUBresults" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2072,6 +2072,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>